--- a/formulas/sales-forecast.xlsx
+++ b/formulas/sales-forecast.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Exercise" sheetId="1" r:id="rId1"/>
-    <sheet name="Solution" sheetId="2" r:id="rId2"/>
+    <sheet name="Solution" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Profit (€)</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>Forecast study</t>
-  </si>
-  <si>
-    <t>Ditacsa, S.L.</t>
   </si>
   <si>
     <t>Sales (€)</t>
@@ -57,7 +54,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,50 +63,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -127,12 +124,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,53 +137,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,180 +537,181 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2018</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2020</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <v>2016</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D12" s="11">
         <v>2017</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E12" s="11">
         <v>2018</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F12" s="11">
         <v>2019</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G12" s="11">
         <v>2020</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1200000</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C12" s="2">
-        <v>2016</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2017</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2018</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2019</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5">
+      <c r="C14" s="13">
         <v>0.3</v>
       </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
   </mergeCells>
@@ -678,242 +724,243 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2018</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2020</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2016</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2017</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2018</v>
-      </c>
-      <c r="F3" s="11">
-        <v>2019</v>
-      </c>
-      <c r="G3" s="11">
-        <v>2020</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="B4" s="19">
         <v>1200000</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="19">
         <f>B4+B4*C13</f>
         <v>1320000</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="19">
         <f>C4+C4*D13</f>
         <v>1478400</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="19">
         <f>D4+D4*E13</f>
         <v>1685376</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="19">
         <f>E4+E4*F13</f>
         <v>1955036.1600000001</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="19">
         <f>F4+F4*G13</f>
         <v>2306942.6688000001</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="20">
         <f>AVERAGE(B4:G4)</f>
         <v>1657625.8048</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="13">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <f t="shared" ref="B5:G5" si="0">B4*$C14</f>
         <v>360000</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>396000</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>443520</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>505612.79999999999</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>586510.848</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>692082.80064000003</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <f>AVERAGE(B5:G5)</f>
         <v>497287.74144000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="16">
         <f>B4-B5</f>
         <v>840000</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="16">
         <f t="shared" ref="C7:G7" si="1">C4-C5</f>
         <v>924000</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="16">
         <f t="shared" si="1"/>
         <v>1034880</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="16">
         <f t="shared" si="1"/>
         <v>1179763.2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="16">
         <f t="shared" si="1"/>
         <v>1368525.3120000002</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="16">
         <f t="shared" si="1"/>
         <v>1614859.8681600001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="17">
         <f t="shared" ref="H7" si="2">AVERAGE(B7:G7)</f>
         <v>1160338.06336</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="6" t="s">
+    <row r="8" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C12" s="2">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <v>2016</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="11">
         <v>2017</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="11">
         <v>2018</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="11">
         <v>2019</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5">
+      <c r="C14" s="13">
         <v>0.3</v>
       </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A14:B14"/>
+  <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/formulas/sales-forecast.xlsx
+++ b/formulas/sales-forecast.xlsx
@@ -180,12 +180,6 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -196,9 +190,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -231,6 +222,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -245,6 +245,296 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales and Expenses</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Forecast</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales (€)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Solution!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1478400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1685376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1955036.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2306942.6688000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expenses (€)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Solution!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>396000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>443520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>505612.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>586510.848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>692082.80064000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="43176320"/>
+        <c:axId val="43177856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="43176320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43177856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43177856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="\€#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43176320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,165 +838,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>2015</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <v>2016</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>2017</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>2018</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>2019</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>2020</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>1200000</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8">
         <v>2016</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>2017</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>2018</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>2019</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>0.1</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>0.12</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>0.16</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>0.18</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>0.3</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -724,7 +1014,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,225 +1025,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>2015</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <v>2016</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>2017</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>2018</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>2019</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>2020</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>1200000</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <f>B4+B4*C13</f>
         <v>1320000</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="16">
         <f>C4+C4*D13</f>
         <v>1478400</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <f>D4+D4*E13</f>
         <v>1685376</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="16">
         <f>E4+E4*F13</f>
         <v>1955036.1600000001</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="16">
         <f>F4+F4*G13</f>
         <v>2306942.6688000001</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="17">
         <f>AVERAGE(B4:G4)</f>
         <v>1657625.8048</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <f t="shared" ref="B5:G5" si="0">B4*$C14</f>
         <v>360000</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>396000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>443520</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>505612.79999999999</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>586510.848</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>692082.80064000003</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f>AVERAGE(B5:G5)</f>
         <v>497287.74144000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <f>B4-B5</f>
         <v>840000</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <f t="shared" ref="C7:G7" si="1">C4-C5</f>
         <v>924000</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="13">
         <f t="shared" si="1"/>
         <v>1034880</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <f t="shared" si="1"/>
         <v>1179763.2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="13">
         <f t="shared" si="1"/>
         <v>1368525.3120000002</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>1614859.8681600001</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <f t="shared" ref="H7" si="2">AVERAGE(B7:G7)</f>
         <v>1160338.06336</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8">
         <v>2016</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>2017</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>2018</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>2019</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>0.1</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>0.12</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>0.16</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>0.18</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>0.3</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -963,5 +1253,6 @@
     <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>